--- a/Configuration/Data.xlsx
+++ b/Configuration/Data.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myworkspace\IN4Suite4\Configuration\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCDA5C0-5EC6-4329-8DBA-B09B0597CAA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{729F5ADD-9E2B-4EC9-8425-24B2377A1A6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20670" windowHeight="7905" activeTab="1" xr2:uid="{7F1729D3-3B82-441A-A6F3-BBD6763C58AE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" xr2:uid="{7F1729D3-3B82-441A-A6F3-BBD6763C58AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Indent List" sheetId="1" r:id="rId1"/>
     <sheet name="PO List" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:P7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -385,8 +381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9835C391-48FA-4E55-BB38-A162B7272604}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D7A4C0-B920-45C6-BCED-ECB95CD4F16C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Configuration/Data.xlsx
+++ b/Configuration/Data.xlsx
@@ -3,16 +3,33 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{729F5ADD-9E2B-4EC9-8425-24B2377A1A6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{35EBFC13-8580-4668-8C74-C6876C927E9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" xr2:uid="{7F1729D3-3B82-441A-A6F3-BBD6763C58AE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="6630" tabRatio="658" activeTab="1" xr2:uid="{7F1729D3-3B82-441A-A6F3-BBD6763C58AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Indent List" sheetId="1" r:id="rId1"/>
-    <sheet name="PO List" sheetId="2" r:id="rId2"/>
+    <sheet name="PO List" sheetId="20" r:id="rId2"/>
+    <sheet name="Issue List" sheetId="3" r:id="rId3"/>
+    <sheet name="ServiceIndList" sheetId="2" r:id="rId4"/>
+    <sheet name="GRN List" sheetId="5" r:id="rId5"/>
+    <sheet name="GatePass List" sheetId="6" r:id="rId6"/>
+    <sheet name="SupDebitNote List" sheetId="16" r:id="rId7"/>
+    <sheet name="WOcert List" sheetId="17" r:id="rId8"/>
+    <sheet name="MiscExpenses List" sheetId="18" r:id="rId9"/>
+    <sheet name="Ropo List" sheetId="7" r:id="rId10"/>
+    <sheet name="Pending List" sheetId="8" r:id="rId11"/>
+    <sheet name="TransferOrder List" sheetId="10" r:id="rId12"/>
+    <sheet name="MaterialReco List" sheetId="11" r:id="rId13"/>
+    <sheet name="UnpaidGRN List" sheetId="13" r:id="rId14"/>
+    <sheet name="Return List" sheetId="12" r:id="rId15"/>
+    <sheet name="MaterialSales List" sheetId="14" r:id="rId16"/>
+    <sheet name="Suppcert List" sheetId="9" r:id="rId17"/>
+    <sheet name="SupDebitNoteRec List" sheetId="19" r:id="rId18"/>
+    <sheet name="SuppAdvance List" sheetId="15" r:id="rId19"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P7"/>
+  <oleSize ref="A1:T20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,12 +39,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
   <si>
     <t>Project</t>
   </si>
   <si>
-    <t>New Shrachi Garden, Kolkata (Calcutta)</t>
+    <t>BURDWAN TOWNSHIP PHASE -2, Burdwan</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>BURDWAN TOWNSHIP, Burdwan</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Bengal Shrachi Housing Development Limited</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>Gate Pass Type</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>Greenwood Nest, Kolkata</t>
+  </si>
+  <si>
+    <t>Shrachi Burdwan Developers Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Green Wood Sonata-HIG</t>
+  </si>
+  <si>
+    <t>From Store</t>
+  </si>
+  <si>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Burdwan Township - General</t>
+  </si>
+  <si>
+    <t>Returnable</t>
+  </si>
+  <si>
+    <t>Non-Returnable</t>
+  </si>
+  <si>
+    <t>Processed</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Sub Project</t>
+  </si>
+  <si>
+    <t>Antara-Malhar-Phase I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company </t>
   </si>
 </sst>
 </file>
@@ -381,13 +470,562 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9835C391-48FA-4E55-BB38-A162B7272604}">
   <dimension ref="A1:B2"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41850B5B-8BAA-4420-804D-A00E1DF6C76D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA2B14C-C330-4482-99B4-590E398D4EB2}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D227D9A-490F-485E-8FA1-9CD03EA9202F}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FAE9D0-ECD2-4650-8EEF-92153E1A3CEB}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43A7E70-8F06-49B1-8624-49AD1B793B95}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98401E47-45DC-4714-B419-5448C38D3655}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9A5C08-3809-4DD9-90B3-58B01595DE8B}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053C287A-FEF2-4F75-AF22-9A63209FA272}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6157F96B-E760-47B4-9419-87DEA089DFD2}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE770EA-9B39-4EE2-9C9D-6E281319AE1F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCCC3E5-7E38-4A6E-BA0E-B9DB2ACE132C}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="46" customWidth="1"/>
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF79125-59D5-431A-9969-85FDB36E1235}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D7A4C0-B920-45C6-BCED-ECB95CD4F16C}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2B1EB9-43C9-43C1-BA51-DEB3E67AFFFE}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC90B824-B4F4-4B59-B6A4-111D5E6E06CD}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE602F7-3F58-4E11-9C24-85DD9BA45A78}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB026F8-B537-44D1-A3FB-8008ECBACA1F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -399,25 +1037,48 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51198F0F-6498-4BEB-888A-09BB67B98B50}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D7A4C0-B920-45C6-BCED-ECB95CD4F16C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Configuration/Data.xlsx
+++ b/Configuration/Data.xlsx
@@ -1,32 +1,110 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{35EBFC13-8580-4668-8C74-C6876C927E9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8D44EBB9-DAEF-4C3F-BD25-9AFC06CB9B41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="6630" tabRatio="658" activeTab="1" xr2:uid="{7F1729D3-3B82-441A-A6F3-BBD6763C58AE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="6630" tabRatio="658" firstSheet="94" activeTab="96" xr2:uid="{7F1729D3-3B82-441A-A6F3-BBD6763C58AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Indent List" sheetId="1" r:id="rId1"/>
-    <sheet name="PO List" sheetId="20" r:id="rId2"/>
-    <sheet name="Issue List" sheetId="3" r:id="rId3"/>
-    <sheet name="ServiceIndList" sheetId="2" r:id="rId4"/>
-    <sheet name="GRN List" sheetId="5" r:id="rId5"/>
-    <sheet name="GatePass List" sheetId="6" r:id="rId6"/>
-    <sheet name="SupDebitNote List" sheetId="16" r:id="rId7"/>
-    <sheet name="WOcert List" sheetId="17" r:id="rId8"/>
-    <sheet name="MiscExpenses List" sheetId="18" r:id="rId9"/>
-    <sheet name="Ropo List" sheetId="7" r:id="rId10"/>
-    <sheet name="Pending List" sheetId="8" r:id="rId11"/>
-    <sheet name="TransferOrder List" sheetId="10" r:id="rId12"/>
-    <sheet name="MaterialReco List" sheetId="11" r:id="rId13"/>
-    <sheet name="UnpaidGRN List" sheetId="13" r:id="rId14"/>
-    <sheet name="Return List" sheetId="12" r:id="rId15"/>
-    <sheet name="MaterialSales List" sheetId="14" r:id="rId16"/>
-    <sheet name="Suppcert List" sheetId="9" r:id="rId17"/>
-    <sheet name="SupDebitNoteRec List" sheetId="19" r:id="rId18"/>
-    <sheet name="SuppAdvance List" sheetId="15" r:id="rId19"/>
+    <sheet name="Advance List" sheetId="21" r:id="rId2"/>
+    <sheet name="DebitNote List" sheetId="22" r:id="rId3"/>
+    <sheet name="DebitNoteReceipt List" sheetId="23" r:id="rId4"/>
+    <sheet name="ServDebitNote List" sheetId="24" r:id="rId5"/>
+    <sheet name="ServDebitNoteReceipt List" sheetId="25" r:id="rId6"/>
+    <sheet name="TenderDoc List" sheetId="26" r:id="rId7"/>
+    <sheet name="ContResponse List" sheetId="27" r:id="rId8"/>
+    <sheet name="Expression Of Interest" sheetId="28" r:id="rId9"/>
+    <sheet name="Float Tender" sheetId="29" r:id="rId10"/>
+    <sheet name="Tender Opening Form" sheetId="30" r:id="rId11"/>
+    <sheet name="Tender Receipt" sheetId="31" r:id="rId12"/>
+    <sheet name="TenderRateComparison List" sheetId="32" r:id="rId13"/>
+    <sheet name="TenderLinkToWO List" sheetId="33" r:id="rId14"/>
+    <sheet name="PreTenderEst List" sheetId="34" r:id="rId15"/>
+    <sheet name="Abstract List" sheetId="35" r:id="rId16"/>
+    <sheet name="Modification List" sheetId="36" r:id="rId17"/>
+    <sheet name="Quotation List" sheetId="37" r:id="rId18"/>
+    <sheet name="StoreMaster List" sheetId="39" r:id="rId19"/>
+    <sheet name="Contractor List" sheetId="40" r:id="rId20"/>
+    <sheet name="Consultant List" sheetId="41" r:id="rId21"/>
+    <sheet name="Contractingclient List" sheetId="42" r:id="rId22"/>
+    <sheet name="Supplier Master" sheetId="44" r:id="rId23"/>
+    <sheet name="MaterialMaster List" sheetId="45" r:id="rId24"/>
+    <sheet name="ServiceProviderMasters List" sheetId="46" r:id="rId25"/>
+    <sheet name="Rate Comparision List" sheetId="38" r:id="rId26"/>
+    <sheet name="PO List" sheetId="20" r:id="rId27"/>
+    <sheet name="Issue List" sheetId="3" r:id="rId28"/>
+    <sheet name="ServiceIndList" sheetId="2" r:id="rId29"/>
+    <sheet name="GRN List" sheetId="5" r:id="rId30"/>
+    <sheet name="GatePass List" sheetId="6" r:id="rId31"/>
+    <sheet name="SupDebitNote List" sheetId="16" r:id="rId32"/>
+    <sheet name="WOcert List" sheetId="17" r:id="rId33"/>
+    <sheet name="MiscExpenses List" sheetId="18" r:id="rId34"/>
+    <sheet name="Ropo List" sheetId="7" r:id="rId35"/>
+    <sheet name="Pending List" sheetId="8" r:id="rId36"/>
+    <sheet name="TransferOrder List" sheetId="10" r:id="rId37"/>
+    <sheet name="MaterialReco List" sheetId="11" r:id="rId38"/>
+    <sheet name="UnpaidGRN List" sheetId="13" r:id="rId39"/>
+    <sheet name="Return List" sheetId="12" r:id="rId40"/>
+    <sheet name="MaterialSales List" sheetId="14" r:id="rId41"/>
+    <sheet name="Suppcert List" sheetId="9" r:id="rId42"/>
+    <sheet name="SupDebitNoteRec List" sheetId="19" r:id="rId43"/>
+    <sheet name="SuppAdvance List" sheetId="15" r:id="rId44"/>
+    <sheet name="RateMaster List" sheetId="47" r:id="rId45"/>
+    <sheet name="EstChargeType List" sheetId="48" r:id="rId46"/>
+    <sheet name="MaterialBuyer List" sheetId="49" r:id="rId47"/>
+    <sheet name="MaterialRoleMapping List" sheetId="50" r:id="rId48"/>
+    <sheet name="AssetType List" sheetId="51" r:id="rId49"/>
+    <sheet name="AssetSubType List" sheetId="52" r:id="rId50"/>
+    <sheet name="Asset List" sheetId="53" r:id="rId51"/>
+    <sheet name="DocTemp List" sheetId="54" r:id="rId52"/>
+    <sheet name="MaterialSaleReceipt List" sheetId="55" r:id="rId53"/>
+    <sheet name="RFQ List" sheetId="56" r:id="rId54"/>
+    <sheet name="Purchase Search List" sheetId="57" r:id="rId55"/>
+    <sheet name="Sales_Agent_List" sheetId="58" r:id="rId56"/>
+    <sheet name="Receipts_List" sheetId="63" r:id="rId57"/>
+    <sheet name="temporaryReceipt_List" sheetId="60" r:id="rId58"/>
+    <sheet name="administrativeReceipts_List" sheetId="61" r:id="rId59"/>
+    <sheet name="sales_Payment_List" sheetId="62" r:id="rId60"/>
+    <sheet name="advance_Payments_List" sheetId="64" r:id="rId61"/>
+    <sheet name="customer_Debit_Note_List" sheetId="65" r:id="rId62"/>
+    <sheet name="waive_Off_List" sheetId="66" r:id="rId63"/>
+    <sheet name="agent_Debit_Note_List" sheetId="67" r:id="rId64"/>
+    <sheet name="customer_Credit_Note_List" sheetId="68" r:id="rId65"/>
+    <sheet name="Direct_Waive_Off_List" sheetId="69" r:id="rId66"/>
+    <sheet name="Budget_List" sheetId="70" r:id="rId67"/>
+    <sheet name="Request_List" sheetId="71" r:id="rId68"/>
+    <sheet name="Marketing_Agent_Debit_Note_List" sheetId="72" r:id="rId69"/>
+    <sheet name="booking_Documents_List" sheetId="73" r:id="rId70"/>
+    <sheet name="Send_Email_SMS_List" sheetId="74" r:id="rId71"/>
+    <sheet name="TDS_Reconciliation_List" sheetId="75" r:id="rId72"/>
+    <sheet name="Promotion_Agent_List" sheetId="76" r:id="rId73"/>
+    <sheet name="Unit_Share_Type_List" sheetId="77" r:id="rId74"/>
+    <sheet name="Leads_List" sheetId="78" r:id="rId75"/>
+    <sheet name="Customers_List" sheetId="79" r:id="rId76"/>
+    <sheet name="EnggMilestone_List" sheetId="80" r:id="rId77"/>
+    <sheet name="Mbook List" sheetId="81" r:id="rId78"/>
+    <sheet name="MbookAbst List" sheetId="82" r:id="rId79"/>
+    <sheet name="Labour_List" sheetId="83" r:id="rId80"/>
+    <sheet name="Contracting_Leads_List" sheetId="84" r:id="rId81"/>
+    <sheet name="Contracting_Client_List" sheetId="85" r:id="rId82"/>
+    <sheet name="Contracting_Jobs_List" sheetId="86" r:id="rId83"/>
+    <sheet name="Contracting_Contacts_List" sheetId="87" r:id="rId84"/>
+    <sheet name="DPREquip List" sheetId="88" r:id="rId85"/>
+    <sheet name="Critical List" sheetId="89" r:id="rId86"/>
+    <sheet name="Workexecution List" sheetId="90" r:id="rId87"/>
+    <sheet name="CubeResult List" sheetId="91" r:id="rId88"/>
+    <sheet name="CheckList List" sheetId="43" r:id="rId89"/>
+    <sheet name="BankCredit_List" sheetId="92" r:id="rId90"/>
+    <sheet name="BondRequest_List" sheetId="93" r:id="rId91"/>
+    <sheet name="BondPayment_List" sheetId="94" r:id="rId92"/>
+    <sheet name="BillingReceipt_List" sheetId="95" r:id="rId93"/>
+    <sheet name="BillingCreditNote_List" sheetId="96" r:id="rId94"/>
+    <sheet name="LabourCountMapping_List" sheetId="97" r:id="rId95"/>
+    <sheet name="Billing_LabourAdvance_List" sheetId="98" r:id="rId96"/>
+    <sheet name="Billing_LabourPayment_List" sheetId="99" r:id="rId97"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:T20"/>
@@ -39,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="95">
   <si>
     <t>Project</t>
   </si>
@@ -117,16 +195,238 @@
   </si>
   <si>
     <t xml:space="preserve">Company </t>
+  </si>
+  <si>
+    <t>Twin House - Dyuti-Phase III</t>
+  </si>
+  <si>
+    <t>DAKSHINATYA, 24-parganas (s)</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>Burdwan Mall</t>
+  </si>
+  <si>
+    <t>Subproject</t>
+  </si>
+  <si>
+    <t>Residential Plot-TGS Avenue-IV</t>
+  </si>
+  <si>
+    <t>Floor No</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Material Type</t>
+  </si>
+  <si>
+    <t>Furniture &amp; Fixtures</t>
+  </si>
+  <si>
+    <t>Item type</t>
+  </si>
+  <si>
+    <t>Item category</t>
+  </si>
+  <si>
+    <t>Item subcategory</t>
+  </si>
+  <si>
+    <t>Window - Frame - Hardware Fittings</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Buyer Type</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Third Party Buyer</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Supplier Certificates</t>
+  </si>
+  <si>
+    <t>Purchase Orders</t>
+  </si>
+  <si>
+    <t>Transfer Orders</t>
+  </si>
+  <si>
+    <t>Suppliers</t>
+  </si>
+  <si>
+    <t>SOLIS-PHASE-II-TOWER4</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>10A</t>
+  </si>
+  <si>
+    <t>Realized</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Amit Kiran Das</t>
+  </si>
+  <si>
+    <t>New Shrachi Garden, Kolkata (Calcutta)</t>
+  </si>
+  <si>
+    <t>Sub project</t>
+  </si>
+  <si>
+    <t>Shrachi Greens, Jamshedpur</t>
+  </si>
+  <si>
+    <t>Brand Promotion Related</t>
+  </si>
+  <si>
+    <t>Promotion Type</t>
+  </si>
+  <si>
+    <t>Project Related</t>
+  </si>
+  <si>
+    <t>Template Type</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Template Name</t>
+  </si>
+  <si>
+    <t>Elements - Aria</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>NEW YEAR SMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expertise </t>
+  </si>
+  <si>
+    <t>Advertisement</t>
+  </si>
+  <si>
+    <t>Residential Plot-TGS Avenue-III</t>
+  </si>
+  <si>
+    <t>sub project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales Executive </t>
+  </si>
+  <si>
+    <t>MOHAMMAD ARIF BIN SALEH</t>
+  </si>
+  <si>
+    <t>Abstracted Status</t>
+  </si>
+  <si>
+    <t>Not Abstracted</t>
+  </si>
+  <si>
+    <t>Work Order</t>
+  </si>
+  <si>
+    <t>Biswanath Nayak (WO/BTSP/AM/20)</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>InActive</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Lost</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Won</t>
+  </si>
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>Sub project text</t>
+  </si>
+  <si>
+    <t>Antara</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,8 +452,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,7 +775,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,110 +806,138 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41850B5B-8BAA-4420-804D-A00E1DF6C76D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A0C7FB-B7B4-4D1B-836F-0C63FB3AECD7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70695C41-307F-4350-B8AC-558E13F06F0B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DAF113-5424-4CDF-B8FF-7A62CDC9E465}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D17210-A439-4688-ADF0-C5E03778A09A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C447DA3F-0E9F-45B5-B24E-DF1A92815BEA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740503B9-0856-415E-9105-A0CE7892840C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85446FB-343C-43B3-880E-800A1ACEE328}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA2B14C-C330-4482-99B4-590E398D4EB2}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D227D9A-490F-485E-8FA1-9CD03EA9202F}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FAE9D0-ECD2-4650-8EEF-92153E1A3CEB}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -613,32 +945,127 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43A7E70-8F06-49B1-8624-49AD1B793B95}">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC2E14D-70CF-41F8-AAA3-ABB090DF4EEF}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945575CF-E4CC-4F98-BC42-EE117566DACD}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35098B2-8EF4-4EA8-89ED-11C7012220A0}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2864DB8E-A1BC-4789-A3B2-186FF1A275BE}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -647,6 +1074,108 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB91E3B7-32B6-40AE-9AFC-19C650F0C2B8}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6F3EB5-781A-4FE8-AFA0-D0BBF1E1D36A}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060B2431-7123-4C75-A5CC-3172B4D1088B}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FE8679-27A3-40C2-A7CD-BA30DC358BE2}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -655,17 +1184,121 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98401E47-45DC-4714-B419-5448C38D3655}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA4DF3C-B057-40C5-B4AE-659ACFC29922}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A078B2-216B-4945-9379-2CD7EBAC012D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688AB36A-146C-4A27-9B83-7509D7EF5B72}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCCC3E5-7E38-4A6E-BA0E-B9DB2ACE132C}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF79125-59D5-431A-9969-85FDB36E1235}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -689,43 +1322,79 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9A5C08-3809-4DD9-90B3-58B01595DE8B}">
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D7A4C0-B920-45C6-BCED-ECB95CD4F16C}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053C287A-FEF2-4F75-AF22-9A63209FA272}">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1ECC8AE-54DE-4F57-B66D-1C2BF73021AF}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2B1EB9-43C9-43C1-BA51-DEB3E67AFFFE}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -733,140 +1402,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6157F96B-E760-47B4-9419-87DEA089DFD2}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE770EA-9B39-4EE2-9C9D-6E281319AE1F}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCCC3E5-7E38-4A6E-BA0E-B9DB2ACE132C}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF79125-59D5-431A-9969-85FDB36E1235}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -874,67 +1410,6 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D7A4C0-B920-45C6-BCED-ECB95CD4F16C}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2B1EB9-43C9-43C1-BA51-DEB3E67AFFFE}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -943,7 +1418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC90B824-B4F4-4B59-B6A4-111D5E6E06CD}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -981,7 +1456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE602F7-3F58-4E11-9C24-85DD9BA45A78}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1015,7 +1490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB026F8-B537-44D1-A3FB-8008ECBACA1F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1049,7 +1524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51198F0F-6498-4BEB-888A-09BB67B98B50}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1081,4 +1556,2019 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41850B5B-8BAA-4420-804D-A00E1DF6C76D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA2B14C-C330-4482-99B4-590E398D4EB2}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D227D9A-490F-485E-8FA1-9CD03EA9202F}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FAE9D0-ECD2-4650-8EEF-92153E1A3CEB}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43A7E70-8F06-49B1-8624-49AD1B793B95}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C720E4-92DD-4CDD-9709-22A007892446}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98401E47-45DC-4714-B419-5448C38D3655}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9A5C08-3809-4DD9-90B3-58B01595DE8B}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053C287A-FEF2-4F75-AF22-9A63209FA272}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6157F96B-E760-47B4-9419-87DEA089DFD2}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE770EA-9B39-4EE2-9C9D-6E281319AE1F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6A15FE-2104-48D3-BA50-30929FE45083}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D506D378-6615-463B-8CA6-904801AE98EE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DBFC38-39DB-444E-8827-105C4612B11B}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3149B65B-1D21-47E3-957C-A4C0F8534698}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7090FE-7D03-4865-A54C-416797675442}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D222C1-E83C-4637-B664-8B3691605C5D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AC185D-C3EE-4A1A-B31C-C9C4393A152A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A46562-A10E-47D9-BE3C-EF83DF843B28}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8410DA-23A3-4078-99F2-27C9BDAD89D4}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3DAC4-F76D-4DC7-8178-0F4181176419}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC79B68-9743-4B95-9A66-870FA1FE3FB6}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5838419-EB65-42F1-8290-7B32CE63E95F}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97AE069-CED0-40E4-BEB7-E46989AB0464}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12E3767-9F42-4076-871B-DD5F889C8999}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B66ADD-7D6D-43CD-BC77-A451506E88F0}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6254E0-AE91-4039-94DD-EDEE633396F0}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1407A98D-30DC-4EF1-9266-D5D6F354A190}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361F0611-BAF5-4B67-B9AE-E94C1D9072E9}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B315CC5-9450-4F0E-82DB-4D546C80A498}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB6F699-B465-488C-B5E9-CBDADBA329E0}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4266E63F-925A-4032-93CB-F2401E03C72A}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5703E477-1B9E-4E80-9F4E-565A290D1A05}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB01C46-269B-42B2-8599-94E95EC1127E}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEEFFD8-BEB9-4C74-B76F-3EF9665C217D}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE765BF-A834-4CB1-AF9E-835769F8383F}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C113C296-A3A1-4B13-A3AC-E0C85D5EA3F5}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A0E70A-5838-426D-AAA6-4AA36EAC3A62}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382E948E-EE52-418C-B849-1DBAE8D86BF8}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41A37F5-692B-4667-BF81-B8ED276DBCC9}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B65028A-9099-49A5-95F2-9CFD5857745D}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275751DB-1A2F-45D5-8E15-952A9055E77F}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B262A8F3-D0DB-4248-85B2-75D9FC6E30AF}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EC84DF-4CD7-46CF-82C3-EB46584BC154}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2D7B6B-2466-43CD-9413-479635EFF623}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA1431E-16FC-41F5-A7B9-D6DA705B9A95}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30628C48-9B78-417B-93C3-9694E02B1A09}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738175BB-39C6-4BDD-BDE5-CE088BB7EFDA}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE9AFC2-1E99-42D5-ACD4-6237185120B2}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34A3429-A46D-461B-862D-42D5FAC4E4E6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC07EE1-41F4-41AA-B5D0-27F6E9C0851A}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B823EA76-C236-4BE1-9534-B76345A4E048}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214E337D-D695-4C51-AAFF-8B5B703896C1}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D9197F-402A-48BC-9110-24525C9F832B}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C60E0A-D0D3-46B2-9785-369114FC23AC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359AC52A-0B4F-4C05-B6D8-04C749125EDA}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D2A615-87B0-4927-8089-0B773B3277F9}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B7C27E-CF32-47D4-B54C-30D0AE6E183E}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8F7EE8-A255-4ABD-B955-D05B985312A6}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E23283F-75CC-46C7-B34A-B2FAE99DCFD2}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E7AB50-11A2-4165-94B5-5E33BFF8620C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE19A279-FFF6-4855-8BA7-3AE019C7B590}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C057558E-C493-4174-A01D-A63AF351066D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6F6C78-49EC-4E4B-9801-682E05847123}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367FCF32-F40F-4F25-976B-4C264D49DBCF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7FC8ED-588B-4DF8-83EB-D58AD8423016}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87346EA-22A6-487A-B85C-90ACD3F5FF27}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D98E7A-6557-4B47-8D71-52D9602AA0D3}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3046F66-8A5D-442B-B596-EE13B9BDAD31}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Configuration/Data.xlsx
+++ b/Configuration/Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8D44EBB9-DAEF-4C3F-BD25-9AFC06CB9B41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BB2EE5AE-8E17-4810-B10C-8813C7FD27F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="6630" tabRatio="658" firstSheet="94" activeTab="96" xr2:uid="{7F1729D3-3B82-441A-A6F3-BBD6763C58AE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18510" windowHeight="5565" tabRatio="658" firstSheet="94" activeTab="96" xr2:uid="{7F1729D3-3B82-441A-A6F3-BBD6763C58AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Indent List" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="TenderDoc List" sheetId="26" r:id="rId7"/>
     <sheet name="ContResponse List" sheetId="27" r:id="rId8"/>
     <sheet name="Expression Of Interest" sheetId="28" r:id="rId9"/>
-    <sheet name="Float Tender" sheetId="29" r:id="rId10"/>
+    <sheet name="FloatTendering List" sheetId="29" r:id="rId10"/>
     <sheet name="Tender Opening Form" sheetId="30" r:id="rId11"/>
     <sheet name="Tender Receipt" sheetId="31" r:id="rId12"/>
     <sheet name="TenderRateComparison List" sheetId="32" r:id="rId13"/>
@@ -105,9 +105,54 @@
     <sheet name="LabourCountMapping_List" sheetId="97" r:id="rId95"/>
     <sheet name="Billing_LabourAdvance_List" sheetId="98" r:id="rId96"/>
     <sheet name="Billing_LabourPayment_List" sheetId="99" r:id="rId97"/>
+    <sheet name="MarkettingDebitNoteReceipt_List" sheetId="100" r:id="rId98"/>
+    <sheet name="MarkettingCredit_Note_List" sheetId="101" r:id="rId99"/>
+    <sheet name="Marketting_Prameters_List" sheetId="102" r:id="rId100"/>
+    <sheet name="Market_Intelligence_List" sheetId="103" r:id="rId101"/>
+    <sheet name="AgentCreditNote_List" sheetId="104" r:id="rId102"/>
+    <sheet name="AgentApp_Licensing_List" sheetId="105" r:id="rId103"/>
+    <sheet name="Utilities_AreaFinalization_List" sheetId="106" r:id="rId104"/>
+    <sheet name="ServProvider_Cert_List" sheetId="107" r:id="rId105"/>
+    <sheet name="ServProvider_Advance_List" sheetId="108" r:id="rId106"/>
+    <sheet name="Cancellation_Letters_List" sheetId="109" r:id="rId107"/>
+    <sheet name="Demand_Letters_List" sheetId="110" r:id="rId108"/>
+    <sheet name="Reminder_Letters_List" sheetId="111" r:id="rId109"/>
+    <sheet name="Marketting_DN_Receipt_List" sheetId="112" r:id="rId110"/>
+    <sheet name="BilingCompDN_Receipt_List" sheetId="113" r:id="rId111"/>
+    <sheet name="Biling_SolicitorReceipt_List" sheetId="114" r:id="rId112"/>
+    <sheet name="Billing_Payments_List" sheetId="115" r:id="rId113"/>
+    <sheet name="Pur_Approvals_List" sheetId="116" r:id="rId114"/>
+    <sheet name="Engg_Approvals_List" sheetId="117" r:id="rId115"/>
+    <sheet name="Billing_CusRequest_Payment_List" sheetId="118" r:id="rId116"/>
+    <sheet name="Billing_CompanyPayment_List" sheetId="119" r:id="rId117"/>
+    <sheet name="Billing_CompanyDebitNote_List" sheetId="120" r:id="rId118"/>
+    <sheet name="Billing_SDRPayment_List" sheetId="121" r:id="rId119"/>
+    <sheet name="Billing_BrokerInvoice_List" sheetId="122" r:id="rId120"/>
+    <sheet name="Utilities_BankDetails_List" sheetId="123" r:id="rId121"/>
+    <sheet name="ReversalCredit_Voucher_List" sheetId="124" r:id="rId122"/>
+    <sheet name="CutomerInteraction_List" sheetId="125" r:id="rId123"/>
+    <sheet name="Bank_NOC_Letters_List" sheetId="126" r:id="rId124"/>
+    <sheet name="NoDueCertificates_List" sheetId="127" r:id="rId125"/>
+    <sheet name="TitleDeed_List" sheetId="128" r:id="rId126"/>
+    <sheet name="UnitChange_List" sheetId="129" r:id="rId127"/>
+    <sheet name="NameChange_List" sheetId="130" r:id="rId128"/>
+    <sheet name="UnitMovingRequest_List" sheetId="131" r:id="rId129"/>
+    <sheet name="PlanChange_List" sheetId="132" r:id="rId130"/>
+    <sheet name="ThumbPrint_Request_List" sheetId="133" r:id="rId131"/>
+    <sheet name="Reselling_List" sheetId="134" r:id="rId132"/>
+    <sheet name="StopReselling_List" sheetId="135" r:id="rId133"/>
+    <sheet name="SoldHouse_List" sheetId="136" r:id="rId134"/>
+    <sheet name="General_Request_List" sheetId="137" r:id="rId135"/>
+    <sheet name="BankHTD_List" sheetId="138" r:id="rId136"/>
+    <sheet name="CapacityOfElectricity_List" sheetId="139" r:id="rId137"/>
+    <sheet name="Other_Modifications_List" sheetId="140" r:id="rId138"/>
+    <sheet name="Permission_Letter_List" sheetId="141" r:id="rId139"/>
+    <sheet name="AdditionalWork_List" sheetId="142" r:id="rId140"/>
+    <sheet name="DecorFurniture_List" sheetId="143" r:id="rId141"/>
+    <sheet name="BOQ_List" sheetId="144" r:id="rId142"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:T20"/>
+  <oleSize ref="A1:O16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -117,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="114">
   <si>
     <t>Project</t>
   </si>
@@ -402,6 +447,63 @@
   </si>
   <si>
     <t>Antara</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>contract client 1, Pune</t>
+  </si>
+  <si>
+    <t>client name</t>
+  </si>
+  <si>
+    <t>Metro Project, Bangalore</t>
+  </si>
+  <si>
+    <t>AMAZON WARE HOUSE, Chennai (Madras)</t>
+  </si>
+  <si>
+    <t>Hdfc Bank Ltd-Escrow-000403300019457</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Action to perform</t>
+  </si>
+  <si>
+    <t>Enable App for Users</t>
+  </si>
+  <si>
+    <t>Disable App for Users</t>
+  </si>
+  <si>
+    <t>Certifying Company</t>
+  </si>
+  <si>
+    <t>file status</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>IN44</t>
+  </si>
+  <si>
+    <t>PreBlue Contractions, Chennai (Madras)</t>
+  </si>
+  <si>
+    <t>Subporject</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>AMAZ</t>
+  </si>
+  <si>
+    <t>EPI CENTRE</t>
   </si>
 </sst>
 </file>
@@ -452,12 +554,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,7 +880,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,17 +912,331 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A0C7FB-B7B4-4D1B-836F-0C63FB3AECD7}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A89809E-F731-45E8-B181-BA97C42BD3BB}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20166009-7293-43C9-8218-4310E27927E1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E613FAB-3A14-4521-86C0-427EF99CA5A0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0F6463-8066-4304-BF74-315D43157C75}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0372FB-0EB5-4722-8CA3-78C6DD3275E8}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73192BC-6C2D-4E76-85EF-6DF0D8128FC5}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174D80EF-97F3-4F40-B985-603DAFB5D2B6}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFBC37D-22FB-46EB-912B-7271FE736CF2}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E81245-AAE0-4542-8D05-2CE2CB6658BC}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481EF23-6AAB-4295-B670-98A0B24724CB}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -845,6 +1264,275 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A3516C-22ED-4689-97AA-6C28EEDA5513}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B93154-ED2A-4E70-A80E-3744EB5129CF}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED104AF6-2668-4156-8DCF-8CB9B062FB7F}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB387BFF-59C8-4256-9482-7FEA355CBF6C}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CEB3E0-9C6A-4AE6-A42A-B18674425903}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56765F02-77EE-455C-8641-EAE52ED21856}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7B1958-4894-4691-893F-6EACFC068204}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9514DAF-FF57-4EC4-B62C-E121198401EC}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD64E075-617F-4E0A-BA12-0ED92C0A6A49}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BB99C8-6E6E-4598-9705-85E9B4CA4677}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DAF113-5424-4CDF-B8FF-7A62CDC9E465}">
   <dimension ref="A1"/>
@@ -865,6 +1553,267 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A93A980-242D-4DF8-B61B-89AB1153188A}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99363C39-389E-4DAD-98DB-2A04219B4B64}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA0F074-4529-4F06-A440-6D3EB5FE92D7}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2137ECCE-8BBF-4DB1-A8E8-F6B8F2FBD9FB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FE1464-940D-4E45-9B76-517966771A9C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF967756-2220-4FEF-AED7-591302982B92}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE40F93-9688-4913-A3BF-01F20C74DC42}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00A7DAE-97BA-423A-B173-7178461AC81A}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACA08E5-7BBC-471A-B8AE-B1B0296A4126}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729DEB02-FB2B-4C18-BC3D-124C70EBF05C}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D17210-A439-4688-ADF0-C5E03778A09A}">
   <dimension ref="A1"/>
@@ -885,16 +1834,342 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet130.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EBF10A-CEED-4054-BA0C-D5F1E8B1797F}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D3AEBE-138F-4FBE-93FB-C941E355635F}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248A605D-057A-4497-B7FE-A729AF390CEA}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F96A4BA-A7D7-4DBF-A1A6-5389E4870296}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E35539-7F95-494D-8691-0C114BFB2F01}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E457AC-D78E-4E0E-8693-3C6F5B9B8C47}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet136.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293DB9AD-6469-4EFF-A52D-903494A6AA29}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1989B1AB-286A-40E6-9C6D-9B060FBF0439}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FF77A0-1F16-4D31-BDF9-DA8AAC28A378}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FB477B-0BC5-4DAF-BFCC-7C589272EE75}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C447DA3F-0E9F-45B5-B24E-DF1A92815BEA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet140.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602F0AB2-386E-4F1E-BD5A-48289F142A2D}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet141.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E92BE8-42C6-4ED1-B1C9-940895A5DCA4}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet142.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236C655F-4437-42A7-B7FA-D704CAE17943}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1053,7 +2328,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,7 +3086,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,7 +3121,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,7 +3156,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2030,7 +3305,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2218,7 +3493,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2845,7 +4120,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3368,7 +4643,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3391,10 +4666,10 @@
 
 <file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C057558E-C493-4174-A01D-A63AF351066D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3402,9 +4677,12 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3414,28 +4692,65 @@
 
 <file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6F6C78-49EC-4E4B-9801-682E05847123}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367FCF32-F40F-4F25-976B-4C264D49DBCF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3445,14 +4760,20 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3508,7 +4829,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3543,7 +4864,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3571,4 +4892,54 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A60383D-26C1-4A82-9693-23605A0E4F07}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5899EAB-A967-4709-93EE-B7F176E9B3D9}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>